--- a/nix_shjarback_ois_mortality_preprint/data/florida/fl_county_hospital.xlsx
+++ b/nix_shjarback_ois_mortality_preprint/data/florida/fl_county_hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnix\Box\MANUSCRIPTS\In Preparation\Nix &amp; Shjarback - County OIS Fatality Rates\Data\Florida\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnshjarback/Desktop/TX AG Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D66F858-7E0A-4311-AAB2-29C580AF312C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CBF9D3-D79C-3740-8659-001A6E049BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="465" windowWidth="14445" windowHeight="16080" xr2:uid="{5A4895A2-8921-034B-A493-EBD8D5D40725}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="14440" windowHeight="16080" xr2:uid="{5A4895A2-8921-034B-A493-EBD8D5D40725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>county_name</t>
   </si>
   <si>
+    <t>fips</t>
+  </si>
+  <si>
     <t>level1_dum</t>
   </si>
   <si>
@@ -243,7 +246,13 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>county</t>
+    <t>pop_2010</t>
+  </si>
+  <si>
+    <t>rucc_2013</t>
+  </si>
+  <si>
+    <t>metro_non</t>
   </si>
 </sst>
 </file>
@@ -595,40 +604,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA3573-C331-C743-AB86-5563469BB39E}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>12001</v>
@@ -645,10 +663,19 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>247336</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>12003</v>
@@ -665,10 +692,19 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>27115</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>12005</v>
@@ -685,10 +721,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>168852</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>12007</v>
@@ -705,10 +750,19 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>28520</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>12009</v>
@@ -725,10 +779,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>543376</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>12011</v>
@@ -745,10 +808,19 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1748066</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>12013</v>
@@ -765,10 +837,19 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>14625</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>12015</v>
@@ -785,10 +866,19 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>159978</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>12017</v>
@@ -805,10 +895,19 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>141236</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>12019</v>
@@ -825,10 +924,19 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>190865</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>12021</v>
@@ -845,10 +953,19 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>321520</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>12023</v>
@@ -865,10 +982,19 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>67531</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>12027</v>
@@ -885,10 +1011,19 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>34862</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>12029</v>
@@ -905,10 +1040,19 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>16422</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>12031</v>
@@ -925,10 +1069,19 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>864263</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>12033</v>
@@ -945,10 +1098,19 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>297619</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>12035</v>
@@ -965,10 +1127,19 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>95696</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>12037</v>
@@ -985,10 +1156,19 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>11549</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>12039</v>
@@ -1005,10 +1185,19 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>46389</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>12041</v>
@@ -1025,10 +1214,19 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>16939</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>12043</v>
@@ -1045,10 +1243,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>12884</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>12045</v>
@@ -1065,10 +1272,19 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>15863</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>12047</v>
@@ -1085,10 +1301,19 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>14799</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>12049</v>
@@ -1105,10 +1330,19 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>27731</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>12051</v>
@@ -1125,10 +1359,19 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>39140</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>12053</v>
@@ -1145,10 +1388,19 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>172778</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>12055</v>
@@ -1165,10 +1417,19 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>98786</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>12057</v>
@@ -1185,10 +1446,19 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1229226</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>12059</v>
@@ -1205,10 +1475,19 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>19927</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>12061</v>
@@ -1225,10 +1504,19 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>138028</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>12063</v>
@@ -1245,10 +1533,19 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>49746</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>12065</v>
@@ -1265,10 +1562,19 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>14761</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>12067</v>
@@ -1285,10 +1591,19 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>8870</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>12069</v>
@@ -1305,10 +1620,19 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>297052</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>12071</v>
@@ -1325,10 +1649,19 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>618754</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>12073</v>
@@ -1345,10 +1678,19 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>275487</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>12075</v>
@@ -1365,10 +1707,19 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>40801</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>12077</v>
@@ -1385,10 +1736,19 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>8365</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>12079</v>
@@ -1405,10 +1765,19 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>19224</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>12081</v>
@@ -1425,10 +1794,19 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>322833</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>12083</v>
@@ -1445,10 +1823,19 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>331298</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>12085</v>
@@ -1465,10 +1852,19 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>146318</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>12086</v>
@@ -1485,10 +1881,19 @@
       <c r="F44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>2496435</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>12087</v>
@@ -1505,10 +1910,19 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>73090</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>12089</v>
@@ -1525,10 +1939,19 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>73314</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>12091</v>
@@ -1545,10 +1968,19 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>180822</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>12093</v>
@@ -1565,10 +1997,19 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>39996</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>12095</v>
@@ -1585,10 +2026,19 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>1145956</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>12097</v>
@@ -1605,10 +2055,19 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>268685</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>12099</v>
@@ -1625,10 +2084,19 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1320134</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>12101</v>
@@ -1645,10 +2113,19 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>464697</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>12103</v>
@@ -1665,10 +2142,19 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>916542</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>12105</v>
@@ -1685,10 +2171,19 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>602095</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>12107</v>
@@ -1705,10 +2200,19 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>74364</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>12109</v>
@@ -1725,10 +2229,19 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>190039</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>12111</v>
@@ -1745,10 +2258,19 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>277789</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>12113</v>
@@ -1765,10 +2287,19 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>151372</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>12115</v>
@@ -1785,10 +2316,19 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>379448</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>12117</v>
@@ -1805,10 +2345,19 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>422718</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>12119</v>
@@ -1825,10 +2374,19 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>93420</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>12121</v>
@@ -1845,10 +2403,19 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>41551</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>12123</v>
@@ -1865,10 +2432,19 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>22570</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>12125</v>
@@ -1885,10 +2461,19 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>15535</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>12127</v>
@@ -1905,10 +2490,19 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>494593</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>12129</v>
@@ -1925,10 +2519,19 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>30776</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>12131</v>
@@ -1945,10 +2548,19 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>55043</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>12133</v>
@@ -1963,6 +2575,15 @@
         <v>0</v>
       </c>
       <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>24896</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
     </row>
